--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,37 +9,781 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="235">
+  <si>
+    <t>شماره سند</t>
+  </si>
+  <si>
+    <t>تاريخ سند</t>
+  </si>
+  <si>
+    <t>ثبت كننده سند</t>
+  </si>
+  <si>
+    <t>شرح سند</t>
+  </si>
+  <si>
+    <t>1395/04/08</t>
+  </si>
+  <si>
+    <t>محمود ابراهيمي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 724 به نام منااسمعيل زاده فارمد</t>
+  </si>
+  <si>
+    <t>1395/04/12</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 702 به نام سحر صالحي علي آباد</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 575 به نام فهيمه فروندي</t>
+  </si>
+  <si>
+    <t>1395/04/13</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 446 به نام ارمغان پديده شرق (حسين حداد)</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 746 به نام سيدمحسن رباط سرپوشي</t>
+  </si>
+  <si>
+    <t>1395/04/20</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 460 به نام شركت احيا گردرمان خليج فارس -ملازاده</t>
+  </si>
+  <si>
+    <t>1395/04/21</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 506 به نام ابراهيم صديقي</t>
+  </si>
+  <si>
+    <t>1395/04/22</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 567 به نام مجيد ثنائي طرقبه</t>
+  </si>
+  <si>
+    <t>1395/04/23</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 444 به نام محمد طارقي (رايافرنام تاك )</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 675 به نام فرشيد باباپورعلي آبادي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 337 به نام شركت رسانه فرجاد پويا -قبوليان</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 778 به نام شركت يگانه ابتكار رايان سنا (پور غلام شريف ابادي)</t>
+  </si>
+  <si>
+    <t>1395/04/26</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 438 به نام شركت گلسنگ طبيعت (مهدي كريمي )</t>
+  </si>
+  <si>
+    <t>1395/04/27</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 512 به نام عليرضا طاهري</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 788 به نام حسين ميرزائي كاخكي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 783 به نام علي اكبر پور</t>
+  </si>
+  <si>
+    <t>1395/04/28</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 572 به نام علي اكبرباقري</t>
+  </si>
+  <si>
+    <t>1395/04/29</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 797 به نام شركت دانشگرايان نوين دلسا</t>
+  </si>
+  <si>
+    <t>1395/04/30</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 760 به نام حسين رادمهر</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 787 به نام جواد مدرسي</t>
+  </si>
+  <si>
+    <t>1395/04/31</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 507 به نام مصطفي گلزار احمدي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 703 به نام شركت آنارام پردازش شرق -علي عشقي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 794 به نام مهدي مروي</t>
+  </si>
+  <si>
+    <t>1395/05/04</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 756 به نام شركت توسعه فناوري هاي پيشگام سبز آريو(سعيد حنايي)</t>
+  </si>
+  <si>
+    <t>1395/05/05</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1150 به نام ثريا حافظي مطلق</t>
+  </si>
+  <si>
+    <t>1395/05/06</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 569 به نام جواد فرخنده</t>
+  </si>
+  <si>
+    <t>1395/05/11</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 520 به نام شركت گل كوه بينالود</t>
+  </si>
+  <si>
+    <t>1395/05/12</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 789 به نام عليرضا صاحب علم</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 801 به نام علي قاسمي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 617 به نام افسانه چناري</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 784 به نام سيد عباس كامه</t>
+  </si>
+  <si>
+    <t>1395/05/16</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1159 به نام سارا قاسمي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 747 به نام اميرحسن اميني</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1160 به نام احد سعادتمند</t>
+  </si>
+  <si>
+    <t>1395/05/18</t>
+  </si>
+  <si>
+    <t>رسول عبدالهي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 666 به نام صنعت پروژه توس -دكتر فائزيان</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 776 به نام اسماء گل مكاني</t>
+  </si>
+  <si>
+    <t>1395/05/23</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 525 به نام شركت شاخص صنعت پارس</t>
+  </si>
+  <si>
+    <t>1395/05/26</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 725 به نام رضا نجات پور</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 574 به نام  شركت خدمات نيروگاهي آهار شرق(محمد رضا هاتف)</t>
+  </si>
+  <si>
+    <t>1395/05/30</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 733 به نام شركت طرح گستر تيدا</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 501 به نام نويده حسني رخ</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 32 به نام غلامحسين عبدالكريم زاده</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 414 به نام شركت توسعه فناوري جوانه سبز (دكتر گزنچيان )</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 792 به نام مهدي بزئي</t>
+  </si>
+  <si>
+    <t>1395/05/31</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 667 به نام روح ا... شمقدري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرداخت قسط وام شماره 791 به نام سعيدنصرآبادي </t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 581 به نام احمد احمديان</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 636 به نام اميرحسين احمديان</t>
+  </si>
+  <si>
+    <t>1395/06/01</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 556 به نام شركت سازه هاي اطلاعاتي راژمان(جوادعامل )</t>
+  </si>
+  <si>
+    <t>1395/06/06</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 756 به نام سعيد حنائي طيران يزد(شركت توسعه فناوري آريو)</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 738 به نام بي بي عصمت  گل يار</t>
+  </si>
+  <si>
+    <t>1395/06/08</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 610 به نام فن آوران طرثيث - آذري</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 724 به نام منا اسمعيل زاده فارمد</t>
+  </si>
+  <si>
+    <t>1395/06/15</t>
+  </si>
+  <si>
+    <t>مهدي بزئي</t>
+  </si>
+  <si>
+    <t>1395/06/17</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 510 به نام جواد توكلي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 580 به نام نيره شفيعي</t>
+  </si>
+  <si>
+    <t>1395/06/27</t>
+  </si>
+  <si>
+    <t>1395/06/29</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 604 به نام موسسه خيريه هدايت ثامن</t>
+  </si>
+  <si>
+    <t>1395/06/31</t>
+  </si>
+  <si>
+    <t>پرداخت قسط 2وام شماره 783 به نام علي اكبر پور</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 337 به نام شركت رسانه فرجاد پويا ( جواد قبوليان)</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 610 به نام شركت فن آوران نوين طرثيت (الهام آذري)</t>
+  </si>
+  <si>
+    <t>1395/07/03</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1172 به نام محمد حاتمي</t>
+  </si>
+  <si>
+    <t>1395/07/04</t>
+  </si>
+  <si>
+    <t>1395/07/05</t>
+  </si>
+  <si>
+    <t>1395/07/06</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 444 به نام شركت رايا فرنام تك (محمد طارقي)</t>
+  </si>
+  <si>
+    <t>1395/07/07</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1094 به نام فهيمه حسامي</t>
+  </si>
+  <si>
+    <t>1395/07/10</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 259 به نام شركت پايا مكانيك آسيا</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 33 به نام غلامحسين عبدالكريم زاده</t>
+  </si>
+  <si>
+    <t>1395/07/13</t>
+  </si>
+  <si>
+    <t>1395/07/18</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 802 به نام هادي مكاري</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1193 به نام نوآوران نگين پژوهان سپهر آريان ( عباس پورزكي)</t>
+  </si>
+  <si>
+    <t>1395/07/24</t>
+  </si>
+  <si>
+    <t>1395/07/25</t>
+  </si>
+  <si>
+    <t>محمداسماعيل دوستخواه</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 555 به نام شركت سازه هاي اطلاعاتي راژمان(جوادعامل خبازان )</t>
+  </si>
+  <si>
+    <t>1395/07/27</t>
+  </si>
+  <si>
+    <t>1395/07/29</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 807 به نام سيد امين  فرزادفر</t>
+  </si>
+  <si>
+    <t>1395/08/05</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 778 به نام شركت يگانه ابتكار رايان سنا (عليرضا پور غلام شريف ابادي)</t>
+  </si>
+  <si>
+    <t>1395/08/08</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1211 به نام شركت شاخص صنعت پارس</t>
+  </si>
+  <si>
+    <t>مدير سيستم</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 833 به نام جواد بهارآراء</t>
+  </si>
+  <si>
+    <t>1395/08/09</t>
+  </si>
+  <si>
+    <t>1395/08/10</t>
+  </si>
+  <si>
+    <t>1395/08/15</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 709 به نام جوش استارت صنعت (ابوالفضل فيضي)</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 729 به نام شركت پايا فناوران دانش محور پارس (فاطمه ذبيحي)</t>
+  </si>
+  <si>
+    <t>1395/08/18</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1233 به نام مينا مطهري نژاد</t>
+  </si>
+  <si>
+    <t>1395/08/22</t>
+  </si>
+  <si>
+    <t>1395/08/25</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 901 به نام صنعت پروژه توس</t>
+  </si>
+  <si>
+    <t>1395/08/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرداخت قسط وام شماره 883 به نام شركت صنايع هوا خورشيد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرداخت قسط وام شماره 882 به نام شركت صنايع هوا خورشيد </t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 934 به نام مسعود نوروزيان</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 933 به نام فريدون رهنماي رود پشتي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1153 به نام انيسه رحيمي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بابت حذف پرداخت قسط </t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 803 به نام حسام سليماني مطلق (مطلق كاران شرق)</t>
+  </si>
+  <si>
+    <t>1395/09/02</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 956 به نام موسسه غير تجاري صهبا رسانه موعود</t>
+  </si>
+  <si>
+    <t>1395/09/13</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1222 به نام شركت نور پردازان آذرخش مشهد(سعيد بهرامي مقدم)</t>
+  </si>
+  <si>
+    <t>1395/09/14</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 529 به نام شركت زيست فناوري صبا</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1272 به نام شركت نگار الكترونيك بامداد (ناصر ملايي)</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1100 به نام محمود بهمن</t>
+  </si>
+  <si>
+    <t>1395/09/15</t>
+  </si>
+  <si>
+    <t>1395/09/17</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 535 به نام شركت مهندسي فرانگر افق</t>
+  </si>
+  <si>
+    <t>1395/09/18</t>
+  </si>
+  <si>
+    <t>1395/09/20</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 619 به نام پيشگامان صنعت ابيورد(حسيني -رفيعي)</t>
+  </si>
+  <si>
+    <t>1395/09/21</t>
+  </si>
+  <si>
+    <t>1395/09/22</t>
+  </si>
+  <si>
+    <t>1395/09/24</t>
+  </si>
+  <si>
+    <t>1395/09/25</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 606 به نام هنر الكترونيك شرق (بيرجندي-نمازي)</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 539 به نام شركت پارس پويا كنترل بينالود</t>
+  </si>
+  <si>
+    <t>1395/09/29</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام گلسنگ طبيعت</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 806 به نام دانش نگاران هورشيد</t>
+  </si>
+  <si>
+    <t>1395/09/30</t>
+  </si>
+  <si>
+    <t>1395/10/01</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1240 به نام آرش افراسيابي گركاني</t>
+  </si>
+  <si>
+    <t>1395/10/04</t>
+  </si>
+  <si>
+    <t>1395/10/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرداخت قسط وام شماره 1264 به نام زهره  مجيدنيا </t>
+  </si>
+  <si>
+    <t>1395/10/06</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 804 به نام مجيد لنگري و مرتضي حيدري شماره 1067</t>
+  </si>
+  <si>
+    <t>1395/10/08</t>
+  </si>
+  <si>
+    <t>منا اسمعيل زاده فارمد</t>
+  </si>
+  <si>
+    <t>1395/10/09</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1220 به نام شركت توسعه سامانه هاي رايانه سماتوس</t>
+  </si>
+  <si>
+    <t>1395/10/11</t>
+  </si>
+  <si>
+    <t>1395/10/12</t>
+  </si>
+  <si>
+    <t>1395/10/13</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1242 به نام جواد توكلي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرداخت قسط وام شماره 881 به نام شركت صنايع هوا خورشيد </t>
+  </si>
+  <si>
+    <t>1395/10/14</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 879 به نام دكتراحد ضابط</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 34 به نام غلامحسين عبدالكريم زاده</t>
+  </si>
+  <si>
+    <t>1395/10/15</t>
+  </si>
+  <si>
+    <t>1395/10/19</t>
+  </si>
+  <si>
+    <t>1395/10/22</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 974 به نام زينب بخشنده</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 973 به نام مريم حميدي</t>
+  </si>
+  <si>
+    <t>1395/10/25</t>
+  </si>
+  <si>
+    <t>1395/10/27</t>
+  </si>
+  <si>
+    <t>1395/10/29</t>
+  </si>
+  <si>
+    <t>1395/10/30</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 935 به نام سازه گستر آرين پارس</t>
+  </si>
+  <si>
+    <t>1395/11/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرداخت قسط وام شماره 713 به نام زهرا تبادكاني قره تكان </t>
+  </si>
+  <si>
+    <t>1395/11/03</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 945 به نام سيدعليرضا سيديان عنبراني</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1273 به نام نرگس نجاتي سرشت</t>
+  </si>
+  <si>
+    <t>1395/11/04</t>
+  </si>
+  <si>
+    <t>1395/11/05</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 695 به نام سيده فاطمه  شهرستاني</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 804 به نام مجيد لنگري</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 335 به نام شركت راز آب شرق (احسان قيطاني )</t>
+  </si>
+  <si>
+    <t>1395/11/06</t>
+  </si>
+  <si>
+    <t>1395/11/09</t>
+  </si>
+  <si>
+    <t>سيد عليرضا  صدر</t>
+  </si>
+  <si>
+    <t>1395/11/10</t>
+  </si>
+  <si>
+    <t>1395/11/12</t>
+  </si>
+  <si>
+    <t>1395/11/13</t>
+  </si>
+  <si>
+    <t>1395/11/14</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 395 به نام شركت توليدي ميخ و پرچ الماس گلستان</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1224 به نام تدبير انديشان سلامت هوشمند</t>
+  </si>
+  <si>
+    <t>1395/11/16</t>
+  </si>
+  <si>
+    <t>1395/11/17</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1074 به نام عليرضا توكلي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 553 به نام محمد هنكووال</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1281 به نام تدبير انديشان سلامت هوشمند</t>
+  </si>
+  <si>
+    <t>1395/11/18</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 509 به نام   شركت اتوماسيون اداري حسيب</t>
+  </si>
+  <si>
+    <t>1395/11/19</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 472 به نام محمد مستعلي</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 600 به نام آفرينش سيستم هاي پويا (احمد شريعتي)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پرداخت قسط وام شماره 886 به نام حجت  پورنوروزي قلعه نو </t>
+  </si>
+  <si>
+    <t>1395/11/23</t>
+  </si>
+  <si>
+    <t>1395/11/24</t>
+  </si>
+  <si>
+    <t>1395/11/26</t>
+  </si>
+  <si>
+    <t>پرداخت قسط وام شماره 1258 به نام دنا پارس آزند(مسعود عليزاده)</t>
+  </si>
+  <si>
+    <t>قرض الحسنه</t>
+  </si>
+  <si>
+    <t>دو ردیف دستی جهت کارمزد صندوق ثبت شده است</t>
+  </si>
+  <si>
+    <t>پژوهشی</t>
+  </si>
+  <si>
+    <t>مبلغ 750,000 به صورت دستی برای کارمزد صندوق ثبت شده بود</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,10 +796,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,30 +1100,4105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A4"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>460</v>
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>644</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>651</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>653</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>658</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>659</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>675</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>688</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>698</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>699</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>701</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>702</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>706</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>714</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>718</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>721</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>726</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>728</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>744</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>753</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>760</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>761</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>773</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>774</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>775</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>803</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>809</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>810</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>812</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>818</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>836</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>837</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>839</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>840</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>855</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>856</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>857</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>862</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>863</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>864</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>875</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>880</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>889</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>916</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>921</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>922</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>929</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>939</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>948</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>949</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>950</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>951</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>952</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>957</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>966</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>974</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>980</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>981</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>982</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>985</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>988</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>989</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
+        <v>1004</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>1009</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>1026</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>1029</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>1034</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>1036</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>1037</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>1038</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>1069</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1070</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>1071</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>1079</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>1080</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>1143</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>1155</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>1159</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>1156</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>1165</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>1166</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>1168</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>1169</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>1176</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>1177</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>1190</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>1191</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>1194</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>1196</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>1197</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>1202</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>1207</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>1208</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>1215</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>1232</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>1243</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>1244</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>1245</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>1258</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>1264</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>1268</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>1281</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>1289</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>1294</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>1306</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>1308</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>1311</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>1312</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>1316</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>1317</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>1320</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>1321</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>1322</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>1323</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>1324</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>1326</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>1333</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>1334</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>1344</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>1339</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>1340</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>1345</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>1349</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>1350</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>1351</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>1369</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>1370</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>1371</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>1373</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>1374</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>1375</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>1376</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>1384</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>1385</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>1387</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>1388</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>1441</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>1724</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>1393</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>1394</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>1395</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>1396</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>1407</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>1416</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>1424</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>1431</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>1438</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>1401</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>1469</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>1472</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>1476</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>1477</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>1739</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>1480</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>1494</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>1725</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>1495</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>1419</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>1503</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>1504</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>1509</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>1421</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>1515</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>1516</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>1517</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>1524</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>1527</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>1445</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>1446</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>1535</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>1452</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
+        <v>1453</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>1454</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>1456</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>1461</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>1462</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>1463</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>1465</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>1540</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>1544</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>1545</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>1553</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>1554</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>1467</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>1556</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>1559</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>1657</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>1468</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>1564</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>1565</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>1566</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>1567</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>1570</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>1587</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>1656</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>1574</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>1576</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="6">
+        <v>1577</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="6">
+        <v>1578</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>1593</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>1489</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>1513</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>1588</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>1592</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>1594</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>1599</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>1601</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>1602</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="6">
+        <v>1605</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>1608</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>1609</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>1610</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>1613</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>1614</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>1615</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>1619</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>1621</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6">
+        <v>1622</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>1648</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>1632</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>1646</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>1647</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>1661</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>1678</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>1674</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>1683</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>1687</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>1688</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>1694</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6">
+        <v>1695</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>1696</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>1697</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>1698</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>1699</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>1702</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>1703</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>1704</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>1707</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>1710</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="6">
+        <v>1711</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>1709</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>1716</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="6">
+        <v>1718</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>1719</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>1720</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>1721</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>1722</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="6">
+        <v>1727</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>1729</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>1733</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>1737</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>1740</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>1741</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>1745</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>1748</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>1750</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>1751</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>1752</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>1755</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>1757</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>1758</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>1771</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>1763</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>1764</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>1765</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>1766</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>1767</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="6">
+        <v>1768</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>1770</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>1776</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>1778</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="6">
+        <v>1781</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>1782</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>1784</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>1785</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>1799</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>1801</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>1802</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>1803</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>1805</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>1815</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>1817</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1" gridLinesSet="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="241">
   <si>
     <t>شماره سند</t>
   </si>
@@ -724,13 +724,31 @@
   </si>
   <si>
     <t>مبلغ 750,000 به صورت دستی برای کارمزد صندوق ثبت شده بود</t>
+  </si>
+  <si>
+    <t>وام عاملیت است ولی عامل تعریف نشده</t>
+  </si>
+  <si>
+    <t>حساب مرکز</t>
+  </si>
+  <si>
+    <t>بررسی شود</t>
+  </si>
+  <si>
+    <t>سند دستی ثبت شده است</t>
+  </si>
+  <si>
+    <t>سند اصلاح شده</t>
+  </si>
+  <si>
+    <t>عاملیت 90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -753,8 +771,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +809,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -798,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -820,6 +862,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,22 +1156,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="D289" sqref="D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>644</v>
       </c>
@@ -1145,8 +1202,12 @@
       <c r="E2" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="14"/>
+      <c r="H2" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>651</v>
       </c>
@@ -1163,7 +1224,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>653</v>
       </c>
@@ -1180,7 +1241,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>658</v>
       </c>
@@ -1194,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>659</v>
       </c>
@@ -1208,7 +1269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>675</v>
       </c>
@@ -1222,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>688</v>
       </c>
@@ -1239,7 +1300,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>698</v>
       </c>
@@ -1256,7 +1317,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>699</v>
       </c>
@@ -1270,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>701</v>
       </c>
@@ -1287,7 +1348,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>702</v>
       </c>
@@ -1301,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>706</v>
       </c>
@@ -1315,7 +1376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>714</v>
       </c>
@@ -1329,7 +1390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>718</v>
       </c>
@@ -1346,7 +1407,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>721</v>
       </c>
@@ -2485,7 +2546,7 @@
       <c r="C96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2499,7 +2560,7 @@
       <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2541,7 +2602,7 @@
       <c r="C100" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2555,7 +2616,7 @@
       <c r="C101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2625,7 +2686,7 @@
       <c r="C106" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2653,7 +2714,7 @@
       <c r="C108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2852,7 +2913,7 @@
       <c r="C122" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="6" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2866,7 +2927,7 @@
       <c r="C123" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2880,7 +2941,7 @@
       <c r="C124" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="6" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2940,7 +3001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>1350</v>
       </c>
@@ -2954,7 +3015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>1351</v>
       </c>
@@ -2968,7 +3029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>1369</v>
       </c>
@@ -2982,7 +3043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>1370</v>
       </c>
@@ -2996,7 +3057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
         <v>1371</v>
       </c>
@@ -3010,7 +3071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>1373</v>
       </c>
@@ -3020,11 +3081,11 @@
       <c r="C134" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>1374</v>
       </c>
@@ -3038,7 +3099,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>1375</v>
       </c>
@@ -3048,11 +3109,11 @@
       <c r="C136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>1376</v>
       </c>
@@ -3066,7 +3127,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
         <v>1384</v>
       </c>
@@ -3080,7 +3141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>1385</v>
       </c>
@@ -3090,11 +3151,14 @@
       <c r="C139" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F139" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>1387</v>
       </c>
@@ -3108,7 +3172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>1388</v>
       </c>
@@ -3122,7 +3186,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>1441</v>
       </c>
@@ -3136,7 +3200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>1724</v>
       </c>
@@ -3146,11 +3210,14 @@
       <c r="C143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F143" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>1393</v>
       </c>
@@ -3160,11 +3227,11 @@
       <c r="C144" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>1394</v>
       </c>
@@ -3174,11 +3241,11 @@
       <c r="C145" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>1395</v>
       </c>
@@ -3188,11 +3255,11 @@
       <c r="C146" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>1396</v>
       </c>
@@ -3202,11 +3269,11 @@
       <c r="C147" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>1407</v>
       </c>
@@ -3216,11 +3283,11 @@
       <c r="C148" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>1416</v>
       </c>
@@ -3234,7 +3301,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>1424</v>
       </c>
@@ -3244,11 +3311,14 @@
       <c r="C150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F150" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>1431</v>
       </c>
@@ -3262,7 +3332,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>1438</v>
       </c>
@@ -3276,7 +3346,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>1401</v>
       </c>
@@ -3286,11 +3356,11 @@
       <c r="C153" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>1469</v>
       </c>
@@ -3304,7 +3374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>1472</v>
       </c>
@@ -3318,7 +3388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
         <v>1476</v>
       </c>
@@ -3332,7 +3402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>1477</v>
       </c>
@@ -3346,7 +3416,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>1739</v>
       </c>
@@ -3356,11 +3426,11 @@
       <c r="C158" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>1480</v>
       </c>
@@ -3374,7 +3444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>1494</v>
       </c>
@@ -3384,11 +3454,11 @@
       <c r="C160" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>1725</v>
       </c>
@@ -3398,11 +3468,11 @@
       <c r="C161" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>1495</v>
       </c>
@@ -3412,11 +3482,11 @@
       <c r="C162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>1419</v>
       </c>
@@ -3430,7 +3500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>1503</v>
       </c>
@@ -3444,7 +3514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>1504</v>
       </c>
@@ -3458,7 +3528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>1509</v>
       </c>
@@ -3468,11 +3538,11 @@
       <c r="C166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>1421</v>
       </c>
@@ -3482,11 +3552,11 @@
       <c r="C167" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>1515</v>
       </c>
@@ -3500,7 +3570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>1516</v>
       </c>
@@ -3510,11 +3580,11 @@
       <c r="C169" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
         <v>1517</v>
       </c>
@@ -3528,7 +3598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>1524</v>
       </c>
@@ -3542,7 +3612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>1527</v>
       </c>
@@ -3556,7 +3626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>1445</v>
       </c>
@@ -3569,8 +3639,11 @@
       <c r="D173" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F173" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>1446</v>
       </c>
@@ -3584,7 +3657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>1535</v>
       </c>
@@ -3598,7 +3671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>1452</v>
       </c>
@@ -3608,7 +3681,7 @@
       <c r="C176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3664,7 +3737,7 @@
       <c r="C180" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3678,7 +3751,7 @@
       <c r="C181" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3720,7 +3793,7 @@
       <c r="C184" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="6" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3748,7 +3821,7 @@
       <c r="C186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3762,7 +3835,7 @@
       <c r="C187" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3776,7 +3849,7 @@
       <c r="C188" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3790,7 +3863,7 @@
       <c r="C189" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3818,7 +3891,7 @@
       <c r="C191" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="6" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3832,7 +3905,7 @@
       <c r="C192" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="9" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3846,7 +3919,7 @@
       <c r="C193" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3930,7 +4003,7 @@
       <c r="C199" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3958,7 +4031,7 @@
       <c r="C201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="12" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3972,7 +4045,7 @@
       <c r="C202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4014,7 +4087,7 @@
       <c r="C205" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="6" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4042,7 +4115,7 @@
       <c r="C207" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="6" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4084,7 +4157,7 @@
       <c r="C210" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4112,7 +4185,7 @@
       <c r="C212" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4126,7 +4199,7 @@
       <c r="C213" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4140,7 +4213,7 @@
       <c r="C214" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="6" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4182,7 +4255,7 @@
       <c r="C217" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="6" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4196,7 +4269,7 @@
       <c r="C218" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="6" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4224,7 +4297,7 @@
       <c r="C220" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4294,7 +4367,7 @@
       <c r="C225" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4322,7 +4395,7 @@
       <c r="C227" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4336,7 +4409,7 @@
       <c r="C228" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="6" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4378,7 +4451,7 @@
       <c r="C231" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4392,7 +4465,7 @@
       <c r="C232" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4406,7 +4479,7 @@
       <c r="C233" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="6" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4420,7 +4493,7 @@
       <c r="C234" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="6" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4434,7 +4507,7 @@
       <c r="C235" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="6" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4476,7 +4549,7 @@
       <c r="C238" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4490,7 +4563,7 @@
       <c r="C239" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4508,7 +4581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>1702</v>
       </c>
@@ -4518,11 +4591,11 @@
       <c r="C241" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>1703</v>
       </c>
@@ -4532,11 +4605,11 @@
       <c r="C242" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>1704</v>
       </c>
@@ -4550,7 +4623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>1707</v>
       </c>
@@ -4560,11 +4633,11 @@
       <c r="C244" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="245" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
         <v>1710</v>
       </c>
@@ -4576,7 +4649,7 @@
       </c>
       <c r="D245" s="3"/>
     </row>
-    <row r="246" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="6">
         <v>1711</v>
       </c>
@@ -4590,7 +4663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>1709</v>
       </c>
@@ -4600,11 +4673,11 @@
       <c r="C247" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>1716</v>
       </c>
@@ -4618,7 +4691,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="249" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6">
         <v>1718</v>
       </c>
@@ -4632,7 +4705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>1719</v>
       </c>
@@ -4642,11 +4715,11 @@
       <c r="C250" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>1720</v>
       </c>
@@ -4656,11 +4729,14 @@
       <c r="C251" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F251" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>1721</v>
       </c>
@@ -4670,11 +4746,11 @@
       <c r="C252" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>1722</v>
       </c>
@@ -4688,7 +4764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="254" spans="1:4" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>1727</v>
       </c>
@@ -4702,7 +4778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>1729</v>
       </c>
@@ -4716,7 +4792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>1733</v>
       </c>
@@ -4726,11 +4802,11 @@
       <c r="C256" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>1737</v>
       </c>
@@ -4740,11 +4816,11 @@
       <c r="C257" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>1740</v>
       </c>
@@ -4754,11 +4830,11 @@
       <c r="C258" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>1741</v>
       </c>
@@ -4768,11 +4844,11 @@
       <c r="C259" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>1745</v>
       </c>
@@ -4786,7 +4862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>1748</v>
       </c>
@@ -4800,7 +4876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>1750</v>
       </c>
@@ -4814,7 +4890,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>1751</v>
       </c>
@@ -4824,11 +4900,14 @@
       <c r="C263" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="11" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F263" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
         <v>1752</v>
       </c>
@@ -4842,7 +4921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>1755</v>
       </c>
@@ -4852,11 +4931,11 @@
       <c r="C265" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>1757</v>
       </c>
@@ -4866,11 +4945,11 @@
       <c r="C266" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>1758</v>
       </c>
@@ -4884,7 +4963,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>1771</v>
       </c>
@@ -4898,7 +4977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>1763</v>
       </c>
@@ -4908,11 +4987,11 @@
       <c r="C269" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>1764</v>
       </c>
@@ -4926,7 +5005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>1765</v>
       </c>
@@ -4936,11 +5015,11 @@
       <c r="C271" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>1766</v>
       </c>
@@ -4950,7 +5029,7 @@
       <c r="C272" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="6" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4964,7 +5043,7 @@
       <c r="C273" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4995,7 +5074,7 @@
       <c r="C275" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5023,7 +5102,7 @@
       <c r="C277" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5051,7 +5130,7 @@
       <c r="C279" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" s="6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5065,7 +5144,7 @@
       <c r="C280" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" s="11" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5079,7 +5158,7 @@
       <c r="C281" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="6" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5135,7 +5214,7 @@
       <c r="C285" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="6" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5149,7 +5228,7 @@
       <c r="C286" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" s="6" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5177,7 +5256,7 @@
       <c r="C288" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" s="6" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5191,14 +5270,14 @@
       <c r="C289" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="11" t="s">
         <v>230</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>